--- a/src/statics/data.xlsx
+++ b/src/statics/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebDev\distro-calypso\src\statics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF241090-8B19-4C4B-8A4E-7117885D4E61}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298D6993-0595-4A3B-A5E2-EA51ED5007D1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9072" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9072" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro1" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="GERMAN MOSQUERA" sheetId="6" r:id="rId5"/>
     <sheet name="CAMILO GRISALES" sheetId="7" r:id="rId6"/>
     <sheet name="MARIBEL " sheetId="8" r:id="rId7"/>
+    <sheet name="SISTEMA" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Macro1">Macro1!$A$119</definedName>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9096" uniqueCount="2488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9102" uniqueCount="2492">
   <si>
     <t>Regional</t>
   </si>
@@ -7624,12 +7625,24 @@
   <si>
     <t>LA MONTANITA</t>
   </si>
+  <si>
+    <t>Excluidos</t>
+  </si>
+  <si>
+    <t>Total Clientes Zona 100%</t>
+  </si>
+  <si>
+    <t>Carros</t>
+  </si>
+  <si>
+    <t>No Acumulables</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -7659,8 +7672,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7689,6 +7709,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -7784,10 +7809,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7948,17 +7974,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -16966,6 +16994,30 @@
     <row r="390" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="O103:P103"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="O113:P113"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="O123:P123"/>
+    <mergeCell ref="L211:M211"/>
+    <mergeCell ref="O211:P211"/>
+    <mergeCell ref="L170:M170"/>
+    <mergeCell ref="O170:P170"/>
+    <mergeCell ref="L203:M203"/>
+    <mergeCell ref="O203:P203"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="O140:P140"/>
     <mergeCell ref="L219:M219"/>
     <mergeCell ref="O219:P219"/>
     <mergeCell ref="L3:M3"/>
@@ -16982,30 +17034,6 @@
     <mergeCell ref="O73:P73"/>
     <mergeCell ref="L160:M160"/>
     <mergeCell ref="O160:P160"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="O113:P113"/>
-    <mergeCell ref="L123:M123"/>
-    <mergeCell ref="O123:P123"/>
-    <mergeCell ref="L211:M211"/>
-    <mergeCell ref="O211:P211"/>
-    <mergeCell ref="L170:M170"/>
-    <mergeCell ref="O170:P170"/>
-    <mergeCell ref="L203:M203"/>
-    <mergeCell ref="O203:P203"/>
-    <mergeCell ref="L140:M140"/>
-    <mergeCell ref="O140:P140"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="O83:P83"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="L103:M103"/>
-    <mergeCell ref="O103:P103"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="O50:P50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -29639,6 +29667,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="L303:M303"/>
+    <mergeCell ref="O303:P303"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="L259:M259"/>
+    <mergeCell ref="O259:P259"/>
+    <mergeCell ref="L212:M212"/>
+    <mergeCell ref="O212:P212"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="O113:P113"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="O123:P123"/>
+    <mergeCell ref="L172:M172"/>
+    <mergeCell ref="O172:P172"/>
+    <mergeCell ref="L192:M192"/>
+    <mergeCell ref="O192:P192"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="L220:M220"/>
+    <mergeCell ref="O220:P220"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="O133:P133"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="O143:P143"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="O153:P153"/>
+    <mergeCell ref="L202:M202"/>
+    <mergeCell ref="O202:P202"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="O103:P103"/>
     <mergeCell ref="L312:M312"/>
     <mergeCell ref="O312:P312"/>
     <mergeCell ref="L280:M280"/>
@@ -29655,50 +29727,6 @@
     <mergeCell ref="O240:P240"/>
     <mergeCell ref="L250:M250"/>
     <mergeCell ref="O250:P250"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="L220:M220"/>
-    <mergeCell ref="O220:P220"/>
-    <mergeCell ref="L133:M133"/>
-    <mergeCell ref="O133:P133"/>
-    <mergeCell ref="L143:M143"/>
-    <mergeCell ref="O143:P143"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="O153:P153"/>
-    <mergeCell ref="L202:M202"/>
-    <mergeCell ref="O202:P202"/>
-    <mergeCell ref="L103:M103"/>
-    <mergeCell ref="O103:P103"/>
-    <mergeCell ref="L259:M259"/>
-    <mergeCell ref="O259:P259"/>
-    <mergeCell ref="L212:M212"/>
-    <mergeCell ref="O212:P212"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="O113:P113"/>
-    <mergeCell ref="L123:M123"/>
-    <mergeCell ref="O123:P123"/>
-    <mergeCell ref="L172:M172"/>
-    <mergeCell ref="O172:P172"/>
-    <mergeCell ref="L192:M192"/>
-    <mergeCell ref="O192:P192"/>
-    <mergeCell ref="L303:M303"/>
-    <mergeCell ref="O303:P303"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="O69:P69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40891,6 +40919,50 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="O95:P95"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="O114:P114"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="O121:P121"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="O133:P133"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="O140:P140"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="O151:P151"/>
+    <mergeCell ref="L162:M162"/>
+    <mergeCell ref="O162:P162"/>
+    <mergeCell ref="L172:M172"/>
+    <mergeCell ref="O172:P172"/>
+    <mergeCell ref="L179:M179"/>
+    <mergeCell ref="O179:P179"/>
+    <mergeCell ref="L187:M187"/>
+    <mergeCell ref="O187:P187"/>
+    <mergeCell ref="L194:M194"/>
+    <mergeCell ref="O194:P194"/>
+    <mergeCell ref="L201:M201"/>
+    <mergeCell ref="O201:P201"/>
     <mergeCell ref="L209:M209"/>
     <mergeCell ref="O209:P209"/>
     <mergeCell ref="L220:M220"/>
@@ -40905,50 +40977,6 @@
     <mergeCell ref="O236:P236"/>
     <mergeCell ref="L244:M244"/>
     <mergeCell ref="O244:P244"/>
-    <mergeCell ref="L187:M187"/>
-    <mergeCell ref="O187:P187"/>
-    <mergeCell ref="L194:M194"/>
-    <mergeCell ref="O194:P194"/>
-    <mergeCell ref="L201:M201"/>
-    <mergeCell ref="O201:P201"/>
-    <mergeCell ref="L162:M162"/>
-    <mergeCell ref="O162:P162"/>
-    <mergeCell ref="L172:M172"/>
-    <mergeCell ref="O172:P172"/>
-    <mergeCell ref="L179:M179"/>
-    <mergeCell ref="O179:P179"/>
-    <mergeCell ref="L133:M133"/>
-    <mergeCell ref="O133:P133"/>
-    <mergeCell ref="L140:M140"/>
-    <mergeCell ref="O140:P140"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="O151:P151"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="O95:P95"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="O114:P114"/>
-    <mergeCell ref="L121:M121"/>
-    <mergeCell ref="O121:P121"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="O83:P83"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="O29:P29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -40959,7 +40987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -42677,10 +42705,10 @@
       <c r="N41" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="O41" s="55" t="s">
+      <c r="O41" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="P41" s="56"/>
+      <c r="P41" s="55"/>
       <c r="Q41" s="24" t="s">
         <v>85</v>
       </c>
@@ -43967,11 +43995,11 @@
       <c r="P71" s="40"/>
       <c r="Q71" s="40"/>
       <c r="R71" s="40"/>
-      <c r="S71" s="54" t="s">
+      <c r="S71" s="56" t="s">
         <v>1458</v>
       </c>
-      <c r="T71" s="54"/>
-      <c r="U71" s="54"/>
+      <c r="T71" s="56"/>
+      <c r="U71" s="56"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
@@ -44156,10 +44184,10 @@
       <c r="N77" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="O77" s="55" t="s">
+      <c r="O77" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="P77" s="56"/>
+      <c r="P77" s="55"/>
       <c r="Q77" s="24" t="s">
         <v>85</v>
       </c>
@@ -46496,6 +46524,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="O97:P97"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="O90:P90"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="O104:P104"/>
     <mergeCell ref="L3:M3"/>
@@ -46510,15 +46547,6 @@
     <mergeCell ref="O41:P41"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="O58:P58"/>
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="O97:P97"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="L90:M90"/>
-    <mergeCell ref="O90:P90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47487,7 +47515,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView topLeftCell="E28" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -48858,4 +48886,49 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD01CDC4-0C87-4765-9E3D-3D3BB24E1C86}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="57" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2489</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="57" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/statics/data.xlsx
+++ b/src/statics/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebDev\distro-calypso\src\statics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298D6993-0595-4A3B-A5E2-EA51ED5007D1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8884683-8F51-41FF-9002-76DE58262A2E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9072" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="9072" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro1" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -7956,6 +7956,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7974,16 +7975,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
@@ -8484,8 +8484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T390"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A210" sqref="A210"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -8616,17 +8616,17 @@
       <c r="K3" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="50" t="s">
+      <c r="O3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="51"/>
+      <c r="P3" s="52"/>
       <c r="Q3" s="24" t="s">
         <v>85</v>
       </c>
@@ -8866,17 +8866,17 @@
       <c r="K10" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="48" t="s">
+      <c r="L10" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="49"/>
+      <c r="M10" s="50"/>
       <c r="N10" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="50" t="s">
+      <c r="O10" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P10" s="51"/>
+      <c r="P10" s="52"/>
       <c r="Q10" s="24" t="s">
         <v>85</v>
       </c>
@@ -9228,17 +9228,17 @@
       <c r="K19" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="48" t="s">
+      <c r="L19" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M19" s="49"/>
+      <c r="M19" s="50"/>
       <c r="N19" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O19" s="50" t="s">
+      <c r="O19" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P19" s="51"/>
+      <c r="P19" s="52"/>
       <c r="Q19" s="24" t="s">
         <v>85</v>
       </c>
@@ -9545,17 +9545,17 @@
       <c r="K30" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L30" s="48" t="s">
+      <c r="L30" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M30" s="49"/>
+      <c r="M30" s="50"/>
       <c r="N30" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O30" s="50" t="s">
+      <c r="O30" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P30" s="51"/>
+      <c r="P30" s="52"/>
       <c r="Q30" s="24" t="s">
         <v>85</v>
       </c>
@@ -9860,17 +9860,17 @@
       <c r="K40" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L40" s="48" t="s">
+      <c r="L40" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M40" s="49"/>
+      <c r="M40" s="50"/>
       <c r="N40" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O40" s="50" t="s">
+      <c r="O40" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P40" s="51"/>
+      <c r="P40" s="52"/>
       <c r="Q40" s="24" t="s">
         <v>85</v>
       </c>
@@ -10189,17 +10189,17 @@
       <c r="K50" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L50" s="48" t="s">
+      <c r="L50" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M50" s="49"/>
+      <c r="M50" s="50"/>
       <c r="N50" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O50" s="50" t="s">
+      <c r="O50" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P50" s="51"/>
+      <c r="P50" s="52"/>
       <c r="Q50" s="24" t="s">
         <v>85</v>
       </c>
@@ -10648,17 +10648,17 @@
       <c r="K62" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L62" s="48" t="s">
+      <c r="L62" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M62" s="49"/>
+      <c r="M62" s="50"/>
       <c r="N62" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O62" s="50" t="s">
+      <c r="O62" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P62" s="51"/>
+      <c r="P62" s="52"/>
       <c r="Q62" s="24" t="s">
         <v>85</v>
       </c>
@@ -11059,17 +11059,17 @@
       <c r="K73" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L73" s="48" t="s">
+      <c r="L73" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M73" s="49"/>
+      <c r="M73" s="50"/>
       <c r="N73" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O73" s="50" t="s">
+      <c r="O73" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P73" s="51"/>
+      <c r="P73" s="52"/>
       <c r="Q73" s="24" t="s">
         <v>85</v>
       </c>
@@ -11412,17 +11412,17 @@
       <c r="K83" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L83" s="48" t="s">
+      <c r="L83" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M83" s="49"/>
+      <c r="M83" s="50"/>
       <c r="N83" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O83" s="50" t="s">
+      <c r="O83" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P83" s="51"/>
+      <c r="P83" s="52"/>
       <c r="Q83" s="24" t="s">
         <v>85</v>
       </c>
@@ -11749,17 +11749,17 @@
       <c r="K93" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L93" s="48" t="s">
+      <c r="L93" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M93" s="49"/>
+      <c r="M93" s="50"/>
       <c r="N93" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O93" s="50" t="s">
+      <c r="O93" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P93" s="51"/>
+      <c r="P93" s="52"/>
       <c r="Q93" s="24" t="s">
         <v>85</v>
       </c>
@@ -12004,17 +12004,17 @@
       <c r="K103" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L103" s="48" t="s">
+      <c r="L103" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M103" s="49"/>
+      <c r="M103" s="50"/>
       <c r="N103" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O103" s="50" t="s">
+      <c r="O103" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P103" s="51"/>
+      <c r="P103" s="52"/>
       <c r="Q103" s="24" t="s">
         <v>85</v>
       </c>
@@ -12281,17 +12281,17 @@
       <c r="K113" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L113" s="48" t="s">
+      <c r="L113" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M113" s="49"/>
+      <c r="M113" s="50"/>
       <c r="N113" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O113" s="50" t="s">
+      <c r="O113" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P113" s="51"/>
+      <c r="P113" s="52"/>
       <c r="Q113" s="24" t="s">
         <v>85</v>
       </c>
@@ -12566,17 +12566,17 @@
       <c r="K123" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L123" s="48" t="s">
+      <c r="L123" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M123" s="49"/>
+      <c r="M123" s="50"/>
       <c r="N123" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O123" s="50" t="s">
+      <c r="O123" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P123" s="51"/>
+      <c r="P123" s="52"/>
       <c r="Q123" s="24" t="s">
         <v>85</v>
       </c>
@@ -13381,17 +13381,17 @@
       <c r="K140" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L140" s="48" t="s">
+      <c r="L140" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M140" s="49"/>
+      <c r="M140" s="50"/>
       <c r="N140" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O140" s="50" t="s">
+      <c r="O140" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P140" s="51"/>
+      <c r="P140" s="52"/>
       <c r="Q140" s="24" t="s">
         <v>85</v>
       </c>
@@ -13722,17 +13722,17 @@
       <c r="K150" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L150" s="48" t="s">
+      <c r="L150" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M150" s="49"/>
+      <c r="M150" s="50"/>
       <c r="N150" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O150" s="50" t="s">
+      <c r="O150" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P150" s="51"/>
+      <c r="P150" s="52"/>
       <c r="Q150" s="24" t="s">
         <v>85</v>
       </c>
@@ -13977,17 +13977,17 @@
       <c r="K160" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L160" s="48" t="s">
+      <c r="L160" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M160" s="49"/>
+      <c r="M160" s="50"/>
       <c r="N160" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O160" s="50" t="s">
+      <c r="O160" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P160" s="51"/>
+      <c r="P160" s="52"/>
       <c r="Q160" s="24" t="s">
         <v>85</v>
       </c>
@@ -14282,17 +14282,17 @@
       <c r="K170" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L170" s="48" t="s">
+      <c r="L170" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M170" s="49"/>
+      <c r="M170" s="50"/>
       <c r="N170" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O170" s="50" t="s">
+      <c r="O170" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P170" s="51"/>
+      <c r="P170" s="52"/>
       <c r="Q170" s="24" t="s">
         <v>85</v>
       </c>
@@ -15808,17 +15808,17 @@
       <c r="K203" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L203" s="48" t="s">
+      <c r="L203" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M203" s="49"/>
+      <c r="M203" s="50"/>
       <c r="N203" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O203" s="50" t="s">
+      <c r="O203" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P203" s="51"/>
+      <c r="P203" s="52"/>
       <c r="Q203" s="24" t="s">
         <v>85</v>
       </c>
@@ -16079,17 +16079,17 @@
       <c r="K211" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L211" s="48" t="s">
+      <c r="L211" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M211" s="49"/>
+      <c r="M211" s="50"/>
       <c r="N211" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O211" s="50" t="s">
+      <c r="O211" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P211" s="51"/>
+      <c r="P211" s="52"/>
       <c r="Q211" s="24" t="s">
         <v>85</v>
       </c>
@@ -16314,17 +16314,17 @@
       <c r="K219" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L219" s="48" t="s">
+      <c r="L219" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M219" s="49"/>
+      <c r="M219" s="50"/>
       <c r="N219" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O219" s="50" t="s">
+      <c r="O219" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P219" s="51"/>
+      <c r="P219" s="52"/>
       <c r="Q219" s="30" t="s">
         <v>85</v>
       </c>
@@ -16994,30 +16994,6 @@
     <row r="390" customFormat="1" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="O83:P83"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="L103:M103"/>
-    <mergeCell ref="O103:P103"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="O113:P113"/>
-    <mergeCell ref="L123:M123"/>
-    <mergeCell ref="O123:P123"/>
-    <mergeCell ref="L211:M211"/>
-    <mergeCell ref="O211:P211"/>
-    <mergeCell ref="L170:M170"/>
-    <mergeCell ref="O170:P170"/>
-    <mergeCell ref="L203:M203"/>
-    <mergeCell ref="O203:P203"/>
-    <mergeCell ref="L140:M140"/>
-    <mergeCell ref="O140:P140"/>
     <mergeCell ref="L219:M219"/>
     <mergeCell ref="O219:P219"/>
     <mergeCell ref="L3:M3"/>
@@ -17034,6 +17010,30 @@
     <mergeCell ref="O73:P73"/>
     <mergeCell ref="L160:M160"/>
     <mergeCell ref="O160:P160"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="O113:P113"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="O123:P123"/>
+    <mergeCell ref="L211:M211"/>
+    <mergeCell ref="O211:P211"/>
+    <mergeCell ref="L170:M170"/>
+    <mergeCell ref="O170:P170"/>
+    <mergeCell ref="L203:M203"/>
+    <mergeCell ref="O203:P203"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="O140:P140"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="O103:P103"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="O50:P50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17175,17 +17175,17 @@
       <c r="K3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="50" t="s">
+      <c r="O3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="51"/>
+      <c r="P3" s="52"/>
       <c r="Q3" s="33" t="s">
         <v>85</v>
       </c>
@@ -17944,17 +17944,17 @@
       <c r="K19" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="48" t="s">
+      <c r="L19" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M19" s="49"/>
+      <c r="M19" s="50"/>
       <c r="N19" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O19" s="50" t="s">
+      <c r="O19" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P19" s="51"/>
+      <c r="P19" s="52"/>
       <c r="Q19" s="30" t="s">
         <v>85</v>
       </c>
@@ -18263,17 +18263,17 @@
       <c r="K29" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L29" s="48" t="s">
+      <c r="L29" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M29" s="49"/>
+      <c r="M29" s="50"/>
       <c r="N29" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O29" s="50" t="s">
+      <c r="O29" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P29" s="51"/>
+      <c r="P29" s="52"/>
       <c r="Q29" s="30" t="s">
         <v>85</v>
       </c>
@@ -18616,17 +18616,17 @@
       <c r="K39" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L39" s="48" t="s">
+      <c r="L39" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M39" s="49"/>
+      <c r="M39" s="50"/>
       <c r="N39" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O39" s="50" t="s">
+      <c r="O39" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P39" s="51"/>
+      <c r="P39" s="52"/>
       <c r="Q39" s="30" t="s">
         <v>85</v>
       </c>
@@ -19037,17 +19037,17 @@
       <c r="K49" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L49" s="48" t="s">
+      <c r="L49" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M49" s="49"/>
+      <c r="M49" s="50"/>
       <c r="N49" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O49" s="50" t="s">
+      <c r="O49" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P49" s="51"/>
+      <c r="P49" s="52"/>
       <c r="Q49" s="30" t="s">
         <v>85</v>
       </c>
@@ -19436,17 +19436,17 @@
       <c r="K59" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L59" s="48" t="s">
+      <c r="L59" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M59" s="49"/>
+      <c r="M59" s="50"/>
       <c r="N59" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O59" s="50" t="s">
+      <c r="O59" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P59" s="51"/>
+      <c r="P59" s="52"/>
       <c r="Q59" s="30" t="s">
         <v>85</v>
       </c>
@@ -19867,17 +19867,17 @@
       <c r="K69" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L69" s="48" t="s">
+      <c r="L69" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M69" s="49"/>
+      <c r="M69" s="50"/>
       <c r="N69" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O69" s="50" t="s">
+      <c r="O69" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P69" s="51"/>
+      <c r="P69" s="52"/>
       <c r="Q69" s="30" t="s">
         <v>85</v>
       </c>
@@ -20242,17 +20242,17 @@
       <c r="K79" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L79" s="48" t="s">
+      <c r="L79" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M79" s="49"/>
+      <c r="M79" s="50"/>
       <c r="N79" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O79" s="50" t="s">
+      <c r="O79" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P79" s="51"/>
+      <c r="P79" s="52"/>
       <c r="Q79" s="30" t="s">
         <v>85</v>
       </c>
@@ -20879,17 +20879,17 @@
       <c r="K93" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L93" s="48" t="s">
+      <c r="L93" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M93" s="49"/>
+      <c r="M93" s="50"/>
       <c r="N93" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O93" s="50" t="s">
+      <c r="O93" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P93" s="51"/>
+      <c r="P93" s="52"/>
       <c r="Q93" s="30" t="s">
         <v>85</v>
       </c>
@@ -21134,17 +21134,17 @@
       <c r="K103" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L103" s="48" t="s">
+      <c r="L103" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M103" s="49"/>
+      <c r="M103" s="50"/>
       <c r="N103" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O103" s="50" t="s">
+      <c r="O103" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P103" s="51"/>
+      <c r="P103" s="52"/>
       <c r="Q103" s="30" t="s">
         <v>85</v>
       </c>
@@ -21419,17 +21419,17 @@
       <c r="K113" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L113" s="48" t="s">
+      <c r="L113" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M113" s="49"/>
+      <c r="M113" s="50"/>
       <c r="N113" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O113" s="50" t="s">
+      <c r="O113" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P113" s="51"/>
+      <c r="P113" s="52"/>
       <c r="Q113" s="30" t="s">
         <v>85</v>
       </c>
@@ -21704,17 +21704,17 @@
       <c r="K123" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L123" s="48" t="s">
+      <c r="L123" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M123" s="49"/>
+      <c r="M123" s="50"/>
       <c r="N123" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O123" s="50" t="s">
+      <c r="O123" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P123" s="51"/>
+      <c r="P123" s="52"/>
       <c r="Q123" s="30" t="s">
         <v>85</v>
       </c>
@@ -21959,17 +21959,17 @@
       <c r="K133" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L133" s="48" t="s">
+      <c r="L133" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M133" s="49"/>
+      <c r="M133" s="50"/>
       <c r="N133" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O133" s="50" t="s">
+      <c r="O133" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P133" s="51"/>
+      <c r="P133" s="52"/>
       <c r="Q133" s="30" t="s">
         <v>85</v>
       </c>
@@ -22312,17 +22312,17 @@
       <c r="K143" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L143" s="48" t="s">
+      <c r="L143" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M143" s="49"/>
+      <c r="M143" s="50"/>
       <c r="N143" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O143" s="50" t="s">
+      <c r="O143" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P143" s="51"/>
+      <c r="P143" s="52"/>
       <c r="Q143" s="30" t="s">
         <v>85</v>
       </c>
@@ -22631,17 +22631,17 @@
       <c r="K153" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L153" s="48" t="s">
+      <c r="L153" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M153" s="49"/>
+      <c r="M153" s="50"/>
       <c r="N153" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O153" s="50" t="s">
+      <c r="O153" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P153" s="51"/>
+      <c r="P153" s="52"/>
       <c r="Q153" s="30" t="s">
         <v>85</v>
       </c>
@@ -22950,17 +22950,17 @@
       <c r="K163" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L163" s="48" t="s">
+      <c r="L163" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M163" s="49"/>
+      <c r="M163" s="50"/>
       <c r="N163" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O163" s="50" t="s">
+      <c r="O163" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P163" s="51"/>
+      <c r="P163" s="52"/>
       <c r="Q163" s="30" t="s">
         <v>85</v>
       </c>
@@ -23314,17 +23314,17 @@
       <c r="K172" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L172" s="48" t="s">
+      <c r="L172" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M172" s="49"/>
+      <c r="M172" s="50"/>
       <c r="N172" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O172" s="50" t="s">
+      <c r="O172" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P172" s="51"/>
+      <c r="P172" s="52"/>
       <c r="Q172" s="30" t="s">
         <v>85</v>
       </c>
@@ -23599,17 +23599,17 @@
       <c r="K182" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L182" s="48" t="s">
+      <c r="L182" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M182" s="49"/>
+      <c r="M182" s="50"/>
       <c r="N182" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O182" s="50" t="s">
+      <c r="O182" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P182" s="51"/>
+      <c r="P182" s="52"/>
       <c r="Q182" s="30" t="s">
         <v>85</v>
       </c>
@@ -23880,17 +23880,17 @@
       <c r="K192" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L192" s="48" t="s">
+      <c r="L192" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M192" s="49"/>
+      <c r="M192" s="50"/>
       <c r="N192" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O192" s="50" t="s">
+      <c r="O192" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P192" s="51"/>
+      <c r="P192" s="52"/>
       <c r="Q192" s="30" t="s">
         <v>85</v>
       </c>
@@ -24311,17 +24311,17 @@
       <c r="K202" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L202" s="48" t="s">
+      <c r="L202" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M202" s="49"/>
+      <c r="M202" s="50"/>
       <c r="N202" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O202" s="50" t="s">
+      <c r="O202" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P202" s="51"/>
+      <c r="P202" s="52"/>
       <c r="Q202" s="30" t="s">
         <v>85</v>
       </c>
@@ -24566,17 +24566,17 @@
       <c r="K212" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L212" s="48" t="s">
+      <c r="L212" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M212" s="49"/>
+      <c r="M212" s="50"/>
       <c r="N212" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O212" s="50" t="s">
+      <c r="O212" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P212" s="51"/>
+      <c r="P212" s="52"/>
       <c r="Q212" s="30" t="s">
         <v>85</v>
       </c>
@@ -24911,17 +24911,17 @@
       <c r="K220" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L220" s="48" t="s">
+      <c r="L220" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M220" s="49"/>
+      <c r="M220" s="50"/>
       <c r="N220" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O220" s="50" t="s">
+      <c r="O220" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P220" s="51"/>
+      <c r="P220" s="52"/>
       <c r="Q220" s="30" t="s">
         <v>85</v>
       </c>
@@ -25196,17 +25196,17 @@
       <c r="K230" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L230" s="48" t="s">
+      <c r="L230" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M230" s="49"/>
+      <c r="M230" s="50"/>
       <c r="N230" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O230" s="50" t="s">
+      <c r="O230" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P230" s="51"/>
+      <c r="P230" s="52"/>
       <c r="Q230" s="30" t="s">
         <v>85</v>
       </c>
@@ -25477,17 +25477,17 @@
       <c r="K240" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L240" s="48" t="s">
+      <c r="L240" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M240" s="49"/>
+      <c r="M240" s="50"/>
       <c r="N240" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O240" s="50" t="s">
+      <c r="O240" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P240" s="51"/>
+      <c r="P240" s="52"/>
       <c r="Q240" s="30" t="s">
         <v>85</v>
       </c>
@@ -25756,17 +25756,17 @@
       <c r="K250" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L250" s="48" t="s">
+      <c r="L250" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M250" s="49"/>
+      <c r="M250" s="50"/>
       <c r="N250" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O250" s="50" t="s">
+      <c r="O250" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P250" s="51"/>
+      <c r="P250" s="52"/>
       <c r="Q250" s="30" t="s">
         <v>85</v>
       </c>
@@ -26026,17 +26026,17 @@
       <c r="K259" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L259" s="48" t="s">
+      <c r="L259" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M259" s="49"/>
+      <c r="M259" s="50"/>
       <c r="N259" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O259" s="50" t="s">
+      <c r="O259" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P259" s="51"/>
+      <c r="P259" s="52"/>
       <c r="Q259" s="30" t="s">
         <v>85</v>
       </c>
@@ -26290,17 +26290,17 @@
       <c r="K268" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L268" s="48" t="s">
+      <c r="L268" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M268" s="49"/>
+      <c r="M268" s="50"/>
       <c r="N268" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O268" s="50" t="s">
+      <c r="O268" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P268" s="51"/>
+      <c r="P268" s="52"/>
       <c r="Q268" s="30" t="s">
         <v>85</v>
       </c>
@@ -26831,17 +26831,17 @@
       <c r="K280" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L280" s="48" t="s">
+      <c r="L280" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M280" s="49"/>
+      <c r="M280" s="50"/>
       <c r="N280" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O280" s="50" t="s">
+      <c r="O280" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P280" s="51"/>
+      <c r="P280" s="52"/>
       <c r="Q280" s="30" t="s">
         <v>85</v>
       </c>
@@ -27977,17 +27977,17 @@
       <c r="K303" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L303" s="48" t="s">
+      <c r="L303" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M303" s="49"/>
+      <c r="M303" s="50"/>
       <c r="N303" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O303" s="50" t="s">
+      <c r="O303" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P303" s="51"/>
+      <c r="P303" s="52"/>
       <c r="Q303" s="30" t="s">
         <v>85</v>
       </c>
@@ -28297,17 +28297,17 @@
       <c r="K312" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="L312" s="52" t="s">
+      <c r="L312" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M312" s="53"/>
+      <c r="M312" s="54"/>
       <c r="N312" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O312" s="52" t="s">
+      <c r="O312" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="P312" s="52"/>
+      <c r="P312" s="53"/>
       <c r="Q312" s="33" t="s">
         <v>85</v>
       </c>
@@ -29667,6 +29667,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="L312:M312"/>
+    <mergeCell ref="O312:P312"/>
+    <mergeCell ref="L280:M280"/>
+    <mergeCell ref="O280:P280"/>
+    <mergeCell ref="L163:M163"/>
+    <mergeCell ref="O163:P163"/>
+    <mergeCell ref="L182:M182"/>
+    <mergeCell ref="O182:P182"/>
+    <mergeCell ref="L268:M268"/>
+    <mergeCell ref="O268:P268"/>
+    <mergeCell ref="L230:M230"/>
+    <mergeCell ref="O230:P230"/>
+    <mergeCell ref="L240:M240"/>
+    <mergeCell ref="O240:P240"/>
+    <mergeCell ref="L250:M250"/>
+    <mergeCell ref="O250:P250"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="L220:M220"/>
+    <mergeCell ref="O220:P220"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="O133:P133"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="O143:P143"/>
+    <mergeCell ref="L153:M153"/>
+    <mergeCell ref="O153:P153"/>
+    <mergeCell ref="L202:M202"/>
+    <mergeCell ref="O202:P202"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="O103:P103"/>
+    <mergeCell ref="L259:M259"/>
+    <mergeCell ref="O259:P259"/>
+    <mergeCell ref="L212:M212"/>
+    <mergeCell ref="O212:P212"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="O113:P113"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="O123:P123"/>
+    <mergeCell ref="L172:M172"/>
+    <mergeCell ref="O172:P172"/>
+    <mergeCell ref="L192:M192"/>
+    <mergeCell ref="O192:P192"/>
     <mergeCell ref="L303:M303"/>
     <mergeCell ref="O303:P303"/>
     <mergeCell ref="L19:M19"/>
@@ -29683,50 +29727,6 @@
     <mergeCell ref="O59:P59"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="O69:P69"/>
-    <mergeCell ref="L259:M259"/>
-    <mergeCell ref="O259:P259"/>
-    <mergeCell ref="L212:M212"/>
-    <mergeCell ref="O212:P212"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="O113:P113"/>
-    <mergeCell ref="L123:M123"/>
-    <mergeCell ref="O123:P123"/>
-    <mergeCell ref="L172:M172"/>
-    <mergeCell ref="O172:P172"/>
-    <mergeCell ref="L192:M192"/>
-    <mergeCell ref="O192:P192"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="L220:M220"/>
-    <mergeCell ref="O220:P220"/>
-    <mergeCell ref="L133:M133"/>
-    <mergeCell ref="O133:P133"/>
-    <mergeCell ref="L143:M143"/>
-    <mergeCell ref="O143:P143"/>
-    <mergeCell ref="L153:M153"/>
-    <mergeCell ref="O153:P153"/>
-    <mergeCell ref="L202:M202"/>
-    <mergeCell ref="O202:P202"/>
-    <mergeCell ref="L103:M103"/>
-    <mergeCell ref="O103:P103"/>
-    <mergeCell ref="L312:M312"/>
-    <mergeCell ref="O312:P312"/>
-    <mergeCell ref="L280:M280"/>
-    <mergeCell ref="O280:P280"/>
-    <mergeCell ref="L163:M163"/>
-    <mergeCell ref="O163:P163"/>
-    <mergeCell ref="L182:M182"/>
-    <mergeCell ref="O182:P182"/>
-    <mergeCell ref="L268:M268"/>
-    <mergeCell ref="O268:P268"/>
-    <mergeCell ref="L230:M230"/>
-    <mergeCell ref="O230:P230"/>
-    <mergeCell ref="L240:M240"/>
-    <mergeCell ref="O240:P240"/>
-    <mergeCell ref="L250:M250"/>
-    <mergeCell ref="O250:P250"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29865,17 +29865,17 @@
       <c r="K3" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="50" t="s">
+      <c r="O3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="51"/>
+      <c r="P3" s="52"/>
       <c r="Q3" s="19" t="s">
         <v>85</v>
       </c>
@@ -30239,17 +30239,17 @@
       <c r="K12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="48" t="s">
+      <c r="L12" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="49"/>
+      <c r="M12" s="50"/>
       <c r="N12" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O12" s="50" t="s">
+      <c r="O12" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="51"/>
+      <c r="P12" s="52"/>
       <c r="Q12" s="19" t="s">
         <v>85</v>
       </c>
@@ -31007,17 +31007,17 @@
       <c r="K29" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L29" s="48" t="s">
+      <c r="L29" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M29" s="49"/>
+      <c r="M29" s="50"/>
       <c r="N29" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O29" s="50" t="s">
+      <c r="O29" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P29" s="51"/>
+      <c r="P29" s="52"/>
       <c r="Q29" s="19" t="s">
         <v>85</v>
       </c>
@@ -31257,17 +31257,17 @@
       <c r="K36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L36" s="48" t="s">
+      <c r="L36" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M36" s="49"/>
+      <c r="M36" s="50"/>
       <c r="N36" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="50" t="s">
+      <c r="O36" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P36" s="51"/>
+      <c r="P36" s="52"/>
       <c r="Q36" s="19" t="s">
         <v>85</v>
       </c>
@@ -31477,17 +31477,17 @@
       <c r="K43" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L43" s="48" t="s">
+      <c r="L43" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="49"/>
+      <c r="M43" s="50"/>
       <c r="N43" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O43" s="50" t="s">
+      <c r="O43" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P43" s="51"/>
+      <c r="P43" s="52"/>
       <c r="Q43" s="19" t="s">
         <v>85</v>
       </c>
@@ -31729,17 +31729,17 @@
       <c r="K50" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L50" s="48" t="s">
+      <c r="L50" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M50" s="49"/>
+      <c r="M50" s="50"/>
       <c r="N50" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O50" s="50" t="s">
+      <c r="O50" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P50" s="51"/>
+      <c r="P50" s="52"/>
       <c r="Q50" s="19" t="s">
         <v>85</v>
       </c>
@@ -32126,17 +32126,17 @@
       <c r="K60" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L60" s="48" t="s">
+      <c r="L60" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M60" s="49"/>
+      <c r="M60" s="50"/>
       <c r="N60" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O60" s="50" t="s">
+      <c r="O60" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P60" s="51"/>
+      <c r="P60" s="52"/>
       <c r="Q60" s="19" t="s">
         <v>85</v>
       </c>
@@ -32425,17 +32425,17 @@
       <c r="K68" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L68" s="48" t="s">
+      <c r="L68" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M68" s="49"/>
+      <c r="M68" s="50"/>
       <c r="N68" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O68" s="50" t="s">
+      <c r="O68" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P68" s="51"/>
+      <c r="P68" s="52"/>
       <c r="Q68" s="19" t="s">
         <v>85</v>
       </c>
@@ -32673,17 +32673,17 @@
       <c r="K75" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L75" s="48" t="s">
+      <c r="L75" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M75" s="49"/>
+      <c r="M75" s="50"/>
       <c r="N75" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O75" s="50" t="s">
+      <c r="O75" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P75" s="51"/>
+      <c r="P75" s="52"/>
       <c r="Q75" s="19" t="s">
         <v>85</v>
       </c>
@@ -33002,17 +33002,17 @@
       <c r="K83" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L83" s="48" t="s">
+      <c r="L83" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M83" s="49"/>
+      <c r="M83" s="50"/>
       <c r="N83" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O83" s="50" t="s">
+      <c r="O83" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P83" s="51"/>
+      <c r="P83" s="52"/>
       <c r="Q83" s="19" t="s">
         <v>85</v>
       </c>
@@ -33533,17 +33533,17 @@
       <c r="K95" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L95" s="48" t="s">
+      <c r="L95" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M95" s="49"/>
+      <c r="M95" s="50"/>
       <c r="N95" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O95" s="50" t="s">
+      <c r="O95" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P95" s="51"/>
+      <c r="P95" s="52"/>
       <c r="Q95" s="19" t="s">
         <v>85</v>
       </c>
@@ -34417,17 +34417,17 @@
       <c r="K114" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L114" s="48" t="s">
+      <c r="L114" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M114" s="49"/>
+      <c r="M114" s="50"/>
       <c r="N114" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O114" s="50" t="s">
+      <c r="O114" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P114" s="51"/>
+      <c r="P114" s="52"/>
       <c r="Q114" s="19" t="s">
         <v>85</v>
       </c>
@@ -34665,17 +34665,17 @@
       <c r="K121" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L121" s="48" t="s">
+      <c r="L121" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M121" s="49"/>
+      <c r="M121" s="50"/>
       <c r="N121" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O121" s="50" t="s">
+      <c r="O121" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P121" s="51"/>
+      <c r="P121" s="52"/>
       <c r="Q121" s="19" t="s">
         <v>85</v>
       </c>
@@ -35158,17 +35158,17 @@
       <c r="K133" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L133" s="48" t="s">
+      <c r="L133" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M133" s="49"/>
+      <c r="M133" s="50"/>
       <c r="N133" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O133" s="50" t="s">
+      <c r="O133" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P133" s="51"/>
+      <c r="P133" s="52"/>
       <c r="Q133" s="19" t="s">
         <v>85</v>
       </c>
@@ -35376,17 +35376,17 @@
       <c r="K140" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L140" s="48" t="s">
+      <c r="L140" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M140" s="49"/>
+      <c r="M140" s="50"/>
       <c r="N140" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O140" s="50" t="s">
+      <c r="O140" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P140" s="51"/>
+      <c r="P140" s="52"/>
       <c r="Q140" s="19" t="s">
         <v>85</v>
       </c>
@@ -35794,17 +35794,17 @@
       <c r="K151" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L151" s="48" t="s">
+      <c r="L151" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M151" s="49"/>
+      <c r="M151" s="50"/>
       <c r="N151" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O151" s="50" t="s">
+      <c r="O151" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P151" s="51"/>
+      <c r="P151" s="52"/>
       <c r="Q151" s="19" t="s">
         <v>85</v>
       </c>
@@ -36270,17 +36270,17 @@
       <c r="K162" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L162" s="48" t="s">
+      <c r="L162" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M162" s="49"/>
+      <c r="M162" s="50"/>
       <c r="N162" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O162" s="50" t="s">
+      <c r="O162" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P162" s="51"/>
+      <c r="P162" s="52"/>
       <c r="Q162" s="19" t="s">
         <v>85</v>
       </c>
@@ -36699,17 +36699,17 @@
       <c r="K172" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L172" s="48" t="s">
+      <c r="L172" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M172" s="49"/>
+      <c r="M172" s="50"/>
       <c r="N172" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O172" s="50" t="s">
+      <c r="O172" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P172" s="51"/>
+      <c r="P172" s="52"/>
       <c r="Q172" s="19" t="s">
         <v>85</v>
       </c>
@@ -36917,17 +36917,17 @@
       <c r="K179" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L179" s="48" t="s">
+      <c r="L179" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M179" s="49"/>
+      <c r="M179" s="50"/>
       <c r="N179" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O179" s="50" t="s">
+      <c r="O179" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P179" s="51"/>
+      <c r="P179" s="52"/>
       <c r="Q179" s="19" t="s">
         <v>85</v>
       </c>
@@ -37214,17 +37214,17 @@
       <c r="K187" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L187" s="48" t="s">
+      <c r="L187" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M187" s="49"/>
+      <c r="M187" s="50"/>
       <c r="N187" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O187" s="50" t="s">
+      <c r="O187" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P187" s="51"/>
+      <c r="P187" s="52"/>
       <c r="Q187" s="19" t="s">
         <v>85</v>
       </c>
@@ -37432,17 +37432,17 @@
       <c r="K194" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L194" s="48" t="s">
+      <c r="L194" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M194" s="49"/>
+      <c r="M194" s="50"/>
       <c r="N194" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O194" s="50" t="s">
+      <c r="O194" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P194" s="51"/>
+      <c r="P194" s="52"/>
       <c r="Q194" s="19" t="s">
         <v>85</v>
       </c>
@@ -37650,17 +37650,17 @@
       <c r="K201" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L201" s="48" t="s">
+      <c r="L201" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M201" s="49"/>
+      <c r="M201" s="50"/>
       <c r="N201" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O201" s="50" t="s">
+      <c r="O201" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P201" s="51"/>
+      <c r="P201" s="52"/>
       <c r="Q201" s="19" t="s">
         <v>85</v>
       </c>
@@ -37975,17 +37975,17 @@
       <c r="K209" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L209" s="48" t="s">
+      <c r="L209" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M209" s="49"/>
+      <c r="M209" s="50"/>
       <c r="N209" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O209" s="50" t="s">
+      <c r="O209" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P209" s="51"/>
+      <c r="P209" s="52"/>
       <c r="Q209" s="19" t="s">
         <v>85</v>
       </c>
@@ -38421,17 +38421,17 @@
       <c r="K220" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L220" s="48" t="s">
+      <c r="L220" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M220" s="49"/>
+      <c r="M220" s="50"/>
       <c r="N220" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O220" s="50" t="s">
+      <c r="O220" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P220" s="51"/>
+      <c r="P220" s="52"/>
       <c r="Q220" s="19" t="s">
         <v>85</v>
       </c>
@@ -38688,17 +38688,17 @@
       <c r="K228" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L228" s="48" t="s">
+      <c r="L228" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M228" s="49"/>
+      <c r="M228" s="50"/>
       <c r="N228" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O228" s="50" t="s">
+      <c r="O228" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P228" s="51"/>
+      <c r="P228" s="52"/>
       <c r="Q228" s="19" t="s">
         <v>85</v>
       </c>
@@ -39007,17 +39007,17 @@
       <c r="K236" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L236" s="48" t="s">
+      <c r="L236" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M236" s="49"/>
+      <c r="M236" s="50"/>
       <c r="N236" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O236" s="50" t="s">
+      <c r="O236" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P236" s="51"/>
+      <c r="P236" s="52"/>
       <c r="Q236" s="19" t="s">
         <v>85</v>
       </c>
@@ -39324,17 +39324,17 @@
       <c r="K244" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L244" s="48" t="s">
+      <c r="L244" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M244" s="49"/>
+      <c r="M244" s="50"/>
       <c r="N244" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O244" s="50" t="s">
+      <c r="O244" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P244" s="51"/>
+      <c r="P244" s="52"/>
       <c r="Q244" s="19" t="s">
         <v>85</v>
       </c>
@@ -39621,17 +39621,17 @@
       <c r="K252" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="L252" s="48" t="s">
+      <c r="L252" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M252" s="49"/>
+      <c r="M252" s="50"/>
       <c r="N252" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O252" s="50" t="s">
+      <c r="O252" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P252" s="51"/>
+      <c r="P252" s="52"/>
       <c r="Q252" s="19" t="s">
         <v>85</v>
       </c>
@@ -39886,17 +39886,17 @@
       <c r="K260" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L260" s="48" t="s">
+      <c r="L260" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M260" s="49"/>
+      <c r="M260" s="50"/>
       <c r="N260" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O260" s="50" t="s">
+      <c r="O260" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P260" s="51"/>
+      <c r="P260" s="52"/>
       <c r="Q260" s="30" t="s">
         <v>85</v>
       </c>
@@ -40919,50 +40919,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="O83:P83"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="O95:P95"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="O114:P114"/>
-    <mergeCell ref="L121:M121"/>
-    <mergeCell ref="O121:P121"/>
-    <mergeCell ref="L133:M133"/>
-    <mergeCell ref="O133:P133"/>
-    <mergeCell ref="L140:M140"/>
-    <mergeCell ref="O140:P140"/>
-    <mergeCell ref="L151:M151"/>
-    <mergeCell ref="O151:P151"/>
-    <mergeCell ref="L162:M162"/>
-    <mergeCell ref="O162:P162"/>
-    <mergeCell ref="L172:M172"/>
-    <mergeCell ref="O172:P172"/>
-    <mergeCell ref="L179:M179"/>
-    <mergeCell ref="O179:P179"/>
-    <mergeCell ref="L187:M187"/>
-    <mergeCell ref="O187:P187"/>
-    <mergeCell ref="L194:M194"/>
-    <mergeCell ref="O194:P194"/>
-    <mergeCell ref="L201:M201"/>
-    <mergeCell ref="O201:P201"/>
     <mergeCell ref="L209:M209"/>
     <mergeCell ref="O209:P209"/>
     <mergeCell ref="L220:M220"/>
@@ -40977,6 +40933,50 @@
     <mergeCell ref="O236:P236"/>
     <mergeCell ref="L244:M244"/>
     <mergeCell ref="O244:P244"/>
+    <mergeCell ref="L187:M187"/>
+    <mergeCell ref="O187:P187"/>
+    <mergeCell ref="L194:M194"/>
+    <mergeCell ref="O194:P194"/>
+    <mergeCell ref="L201:M201"/>
+    <mergeCell ref="O201:P201"/>
+    <mergeCell ref="L162:M162"/>
+    <mergeCell ref="O162:P162"/>
+    <mergeCell ref="L172:M172"/>
+    <mergeCell ref="O172:P172"/>
+    <mergeCell ref="L179:M179"/>
+    <mergeCell ref="O179:P179"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="O133:P133"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="O140:P140"/>
+    <mergeCell ref="L151:M151"/>
+    <mergeCell ref="O151:P151"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="O95:P95"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="O114:P114"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="O121:P121"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="O29:P29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -41118,17 +41118,17 @@
       <c r="K3" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="50" t="s">
+      <c r="O3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="51"/>
+      <c r="P3" s="52"/>
       <c r="Q3" s="24" t="s">
         <v>85</v>
       </c>
@@ -41340,17 +41340,17 @@
       <c r="K10" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="48" t="s">
+      <c r="L10" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="49"/>
+      <c r="M10" s="50"/>
       <c r="N10" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="50" t="s">
+      <c r="O10" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P10" s="51"/>
+      <c r="P10" s="52"/>
       <c r="Q10" s="24" t="s">
         <v>85</v>
       </c>
@@ -41840,17 +41840,17 @@
       <c r="K21" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="48" t="s">
+      <c r="L21" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M21" s="49"/>
+      <c r="M21" s="50"/>
       <c r="N21" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O21" s="50" t="s">
+      <c r="O21" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P21" s="51"/>
+      <c r="P21" s="52"/>
       <c r="Q21" s="24" t="s">
         <v>85</v>
       </c>
@@ -42096,17 +42096,17 @@
       <c r="K28" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L28" s="48" t="s">
+      <c r="L28" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M28" s="49"/>
+      <c r="M28" s="50"/>
       <c r="N28" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O28" s="50" t="s">
+      <c r="O28" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P28" s="51"/>
+      <c r="P28" s="52"/>
       <c r="Q28" s="24" t="s">
         <v>85</v>
       </c>
@@ -42698,17 +42698,17 @@
       <c r="K41" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="48" t="s">
+      <c r="L41" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M41" s="49"/>
+      <c r="M41" s="50"/>
       <c r="N41" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="O41" s="54" t="s">
+      <c r="O41" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="P41" s="55"/>
+      <c r="P41" s="57"/>
       <c r="Q41" s="24" t="s">
         <v>85</v>
       </c>
@@ -43448,17 +43448,17 @@
       <c r="K58" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L58" s="48" t="s">
+      <c r="L58" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M58" s="49"/>
+      <c r="M58" s="50"/>
       <c r="N58" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O58" s="50" t="s">
+      <c r="O58" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P58" s="51"/>
+      <c r="P58" s="52"/>
       <c r="Q58" s="24" t="s">
         <v>85</v>
       </c>
@@ -43670,17 +43670,17 @@
       <c r="K65" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L65" s="48" t="s">
+      <c r="L65" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M65" s="49"/>
+      <c r="M65" s="50"/>
       <c r="N65" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O65" s="50" t="s">
+      <c r="O65" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P65" s="51"/>
+      <c r="P65" s="52"/>
       <c r="Q65" s="24" t="s">
         <v>85</v>
       </c>
@@ -43995,11 +43995,11 @@
       <c r="P71" s="40"/>
       <c r="Q71" s="40"/>
       <c r="R71" s="40"/>
-      <c r="S71" s="56" t="s">
+      <c r="S71" s="55" t="s">
         <v>1458</v>
       </c>
-      <c r="T71" s="56"/>
-      <c r="U71" s="56"/>
+      <c r="T71" s="55"/>
+      <c r="U71" s="55"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
@@ -44177,17 +44177,17 @@
       <c r="K77" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L77" s="48" t="s">
+      <c r="L77" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M77" s="49"/>
+      <c r="M77" s="50"/>
       <c r="N77" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="O77" s="54" t="s">
+      <c r="O77" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="P77" s="55"/>
+      <c r="P77" s="57"/>
       <c r="Q77" s="24" t="s">
         <v>85</v>
       </c>
@@ -44781,17 +44781,17 @@
       <c r="K90" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L90" s="48" t="s">
+      <c r="L90" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M90" s="49"/>
+      <c r="M90" s="50"/>
       <c r="N90" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="O90" s="50" t="s">
+      <c r="O90" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P90" s="51"/>
+      <c r="P90" s="52"/>
       <c r="Q90" s="24" t="s">
         <v>85</v>
       </c>
@@ -45037,17 +45037,17 @@
       <c r="K97" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L97" s="48" t="s">
+      <c r="L97" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M97" s="49"/>
+      <c r="M97" s="50"/>
       <c r="N97" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="O97" s="52" t="s">
+      <c r="O97" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="P97" s="52"/>
+      <c r="P97" s="53"/>
       <c r="Q97" s="24" t="s">
         <v>85</v>
       </c>
@@ -45293,17 +45293,17 @@
       <c r="K104" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="L104" s="48" t="s">
+      <c r="L104" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M104" s="49"/>
+      <c r="M104" s="50"/>
       <c r="N104" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O104" s="52" t="s">
+      <c r="O104" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="P104" s="52"/>
+      <c r="P104" s="53"/>
       <c r="Q104" s="30" t="s">
         <v>85</v>
       </c>
@@ -46524,15 +46524,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="O97:P97"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="L90:M90"/>
-    <mergeCell ref="O90:P90"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="O104:P104"/>
     <mergeCell ref="L3:M3"/>
@@ -46547,6 +46538,15 @@
     <mergeCell ref="O41:P41"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="O58:P58"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="O97:P97"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="O90:P90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -46679,17 +46679,17 @@
       <c r="K3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="50" t="s">
+      <c r="O3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="51"/>
+      <c r="P3" s="52"/>
       <c r="Q3" s="12" t="s">
         <v>85</v>
       </c>
@@ -47638,17 +47638,17 @@
       <c r="K3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="52" t="s">
+      <c r="L3" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="53"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="52" t="s">
+      <c r="O3" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="52"/>
+      <c r="P3" s="53"/>
       <c r="Q3" s="15" t="s">
         <v>85</v>
       </c>
@@ -48619,17 +48619,17 @@
       <c r="K27" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="L27" s="52" t="s">
+      <c r="L27" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M27" s="53"/>
+      <c r="M27" s="54"/>
       <c r="N27" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O27" s="52" t="s">
+      <c r="O27" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="P27" s="52"/>
+      <c r="P27" s="53"/>
       <c r="Q27" s="33" t="s">
         <v>85</v>
       </c>
@@ -48798,17 +48798,17 @@
       <c r="K33" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="L33" s="52" t="s">
+      <c r="L33" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="M33" s="53"/>
+      <c r="M33" s="54"/>
       <c r="N33" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="O33" s="52" t="s">
+      <c r="O33" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="P33" s="52"/>
+      <c r="P33" s="53"/>
       <c r="Q33" s="33" t="s">
         <v>85</v>
       </c>
@@ -48892,7 +48892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD01CDC4-0C87-4765-9E3D-3D3BB24E1C86}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -48901,8 +48901,8 @@
     <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="57" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:3" s="48" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>2488</v>
       </c>
     </row>
@@ -48917,8 +48917,8 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="57" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+    <row r="3" spans="1:3" s="48" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
         <v>2491</v>
       </c>
     </row>
